--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgal</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H2">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I2">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J2">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N2">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O2">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P2">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q2">
-        <v>0.1702605731448889</v>
+        <v>0.3353634703116666</v>
       </c>
       <c r="R2">
-        <v>1.532345158304</v>
+        <v>3.018271232805</v>
       </c>
       <c r="S2">
-        <v>0.0008185691328487327</v>
+        <v>0.001343531502523181</v>
       </c>
       <c r="T2">
-        <v>0.0008195548576262958</v>
+        <v>0.001349315708508221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H3">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I3">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J3">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.088322</v>
       </c>
       <c r="O3">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P3">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q3">
-        <v>0.3514883427093333</v>
+        <v>0.2796925868419999</v>
       </c>
       <c r="R3">
-        <v>3.163395084384</v>
+        <v>2.517233281578</v>
       </c>
       <c r="S3">
-        <v>0.001689865731000296</v>
+        <v>0.00112050308012141</v>
       </c>
       <c r="T3">
-        <v>0.001691900675215704</v>
+        <v>0.001125327098471647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H4">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I4">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J4">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N4">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O4">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P4">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q4">
-        <v>18.301217873488</v>
+        <v>22.61955182102099</v>
       </c>
       <c r="R4">
-        <v>164.710960861392</v>
+        <v>203.575966389189</v>
       </c>
       <c r="S4">
-        <v>0.08798755794172251</v>
+        <v>0.09061833841430188</v>
       </c>
       <c r="T4">
-        <v>0.0880935129704427</v>
+        <v>0.09100847078888782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H5">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I5">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J5">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N5">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O5">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P5">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q5">
-        <v>0.1524234574533333</v>
+        <v>0.3029527584605</v>
       </c>
       <c r="R5">
-        <v>0.91454074472</v>
+        <v>1.817716550763</v>
       </c>
       <c r="S5">
-        <v>0.0007328128590710446</v>
+        <v>0.001213687866450427</v>
       </c>
       <c r="T5">
-        <v>0.0004891302104951413</v>
+        <v>0.0008126087108747112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H6">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I6">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J6">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N6">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O6">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P6">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q6">
-        <v>23.26743040504711</v>
+        <v>25.33546356678399</v>
       </c>
       <c r="R6">
-        <v>209.406873645424</v>
+        <v>228.019172101056</v>
       </c>
       <c r="S6">
-        <v>0.1118638330558762</v>
+        <v>0.1014988108316294</v>
       </c>
       <c r="T6">
-        <v>0.1119985400067389</v>
+        <v>0.1019357860927112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.495231</v>
       </c>
       <c r="I7">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J7">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N7">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O7">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P7">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q7">
-        <v>0.204735874338</v>
+        <v>0.506787135255</v>
       </c>
       <c r="R7">
-        <v>1.842622869042</v>
+        <v>4.561084217295</v>
       </c>
       <c r="S7">
-        <v>0.00098431753179444</v>
+        <v>0.002030288154687198</v>
       </c>
       <c r="T7">
-        <v>0.0009855028515690851</v>
+        <v>0.002039029002872479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.495231</v>
       </c>
       <c r="I8">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J8">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.088322</v>
       </c>
       <c r="O8">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P8">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q8">
         <v>0.422659643598</v>
@@ -948,10 +948,10 @@
         <v>3.803936792382</v>
       </c>
       <c r="S8">
-        <v>0.002032039077278034</v>
+        <v>0.0016932570070658</v>
       </c>
       <c r="T8">
-        <v>0.002034486068237098</v>
+        <v>0.001700546860185052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>3.495231</v>
       </c>
       <c r="I9">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J9">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N9">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O9">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P9">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q9">
-        <v>22.006949545449</v>
+        <v>34.181712926199</v>
       </c>
       <c r="R9">
-        <v>198.062545909041</v>
+        <v>307.635416335791</v>
       </c>
       <c r="S9">
-        <v>0.1058037646257317</v>
+        <v>0.1369386119599519</v>
       </c>
       <c r="T9">
-        <v>0.1059311740138528</v>
+        <v>0.1375281635539371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1042,40 @@
         <v>3.495231</v>
       </c>
       <c r="I10">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J10">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N10">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O10">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P10">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q10">
-        <v>0.1832870009475</v>
+        <v>0.4578094341495</v>
       </c>
       <c r="R10">
-        <v>1.099722005685</v>
+        <v>2.746856604897</v>
       </c>
       <c r="S10">
-        <v>0.0008811968540735749</v>
+        <v>0.001834073926896526</v>
       </c>
       <c r="T10">
-        <v>0.0005881719969639311</v>
+        <v>0.001227980019066278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.495231</v>
       </c>
       <c r="I11">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J11">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N11">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O11">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P11">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q11">
-        <v>27.97874821860299</v>
+        <v>38.285884236096</v>
       </c>
       <c r="R11">
-        <v>251.808733967427</v>
+        <v>344.572958124864</v>
       </c>
       <c r="S11">
-        <v>0.1345146397927675</v>
+        <v>0.1533807230863485</v>
       </c>
       <c r="T11">
-        <v>0.1346766229510223</v>
+        <v>0.1540410616752091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H12">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I12">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J12">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N12">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O12">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P12">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q12">
-        <v>0.2391347927168889</v>
+        <v>0.5239570215894445</v>
       </c>
       <c r="R12">
-        <v>2.152213134452</v>
+        <v>4.715613194305001</v>
       </c>
       <c r="S12">
-        <v>0.001149698701775464</v>
+        <v>0.002099074069753112</v>
       </c>
       <c r="T12">
-        <v>0.001151083174328354</v>
+        <v>0.002108111056808872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H13">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I13">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J13">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.088322</v>
       </c>
       <c r="O13">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P13">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q13">
-        <v>0.4936732587213332</v>
+        <v>0.4369793007753334</v>
       </c>
       <c r="R13">
-        <v>4.443059328492</v>
+        <v>3.932813706978</v>
       </c>
       <c r="S13">
-        <v>0.002373454310871153</v>
+        <v>0.001750624347954777</v>
       </c>
       <c r="T13">
-        <v>0.002376312435651033</v>
+        <v>0.001758161180408635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H14">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I14">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J14">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N14">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O14">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P14">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q14">
-        <v>25.70447086959399</v>
+        <v>35.33978519132101</v>
       </c>
       <c r="R14">
-        <v>231.340237826346</v>
+        <v>318.058066721889</v>
       </c>
       <c r="S14">
-        <v>0.1235804980648904</v>
+        <v>0.1415780754320582</v>
       </c>
       <c r="T14">
-        <v>0.1237293142785463</v>
+        <v>0.1421876009621456</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H15">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I15">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J15">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N15">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O15">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P15">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q15">
-        <v>0.2140821637683333</v>
+        <v>0.4733199619438334</v>
       </c>
       <c r="R15">
-        <v>1.28449298261</v>
+        <v>2.839919771663</v>
       </c>
       <c r="S15">
-        <v>0.00102925209235081</v>
+        <v>0.001896212127855271</v>
       </c>
       <c r="T15">
-        <v>0.0006869943483555996</v>
+        <v>0.001269583832347229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H16">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I16">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J16">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.01450566666666</v>
+        <v>32.861248</v>
       </c>
       <c r="N16">
-        <v>72.04351699999999</v>
+        <v>98.583744</v>
       </c>
       <c r="O16">
-        <v>0.5508020072052686</v>
+        <v>0.5183936124217073</v>
       </c>
       <c r="P16">
-        <v>0.5514652855580015</v>
+        <v>0.5194669649341341</v>
       </c>
       <c r="Q16">
-        <v>32.67962772702911</v>
+        <v>39.58300532465067</v>
       </c>
       <c r="R16">
-        <v>294.1166495432619</v>
+        <v>356.2470479218561</v>
       </c>
       <c r="S16">
-        <v>0.1571152618379204</v>
+        <v>0.1585772432781297</v>
       </c>
       <c r="T16">
-        <v>0.1573044607709268</v>
+        <v>0.1592599540578456</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H17">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I17">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J17">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1757273333333333</v>
+        <v>0.4349816666666667</v>
       </c>
       <c r="N17">
-        <v>0.527182</v>
+        <v>1.304945</v>
       </c>
       <c r="O17">
-        <v>0.00403052093865001</v>
+        <v>0.0068619340787224</v>
       </c>
       <c r="P17">
-        <v>0.004035374510811825</v>
+        <v>0.00687614195861717</v>
       </c>
       <c r="Q17">
-        <v>0.2242082201446667</v>
+        <v>0.01143371059916667</v>
       </c>
       <c r="R17">
-        <v>2.017873981302</v>
+        <v>0.068602263595</v>
       </c>
       <c r="S17">
-        <v>0.001077935572231374</v>
+        <v>4.580567575364576E-05</v>
       </c>
       <c r="T17">
-        <v>0.001079233627288089</v>
+        <v>3.066858634236453E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H18">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I18">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J18">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.088322</v>
       </c>
       <c r="O18">
-        <v>0.008320664607276909</v>
+        <v>0.005722841821244052</v>
       </c>
       <c r="P18">
-        <v>0.008330684390506023</v>
+        <v>0.00573469116988544</v>
       </c>
       <c r="Q18">
-        <v>0.462858630538</v>
+        <v>0.009535695977</v>
       </c>
       <c r="R18">
-        <v>4.165727674842</v>
+        <v>0.057214175862</v>
       </c>
       <c r="S18">
-        <v>0.002225305488127428</v>
+        <v>3.820185881210263E-05</v>
       </c>
       <c r="T18">
-        <v>0.002227985211402187</v>
+        <v>2.557755095064914E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H19">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I19">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J19">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.888837</v>
+        <v>29.338587</v>
       </c>
       <c r="N19">
-        <v>56.666511</v>
+        <v>88.015761</v>
       </c>
       <c r="O19">
-        <v>0.4332385383145499</v>
+        <v>0.4628228391775791</v>
       </c>
       <c r="P19">
-        <v>0.4337602461882952</v>
+        <v>0.4637811304167767</v>
       </c>
       <c r="Q19">
-        <v>24.100021573419</v>
+        <v>0.7711794285885</v>
       </c>
       <c r="R19">
-        <v>216.900194160771</v>
+        <v>4.627076571531</v>
       </c>
       <c r="S19">
-        <v>0.1158667176822055</v>
+        <v>0.003089495273422543</v>
       </c>
       <c r="T19">
-        <v>0.1160062449254535</v>
+        <v>0.002068530831351069</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H20">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I20">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J20">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1573175</v>
+        <v>0.3929435</v>
       </c>
       <c r="N20">
-        <v>0.314635</v>
+        <v>0.785887</v>
       </c>
       <c r="O20">
-        <v>0.003608268934254619</v>
+        <v>0.006198772500747056</v>
       </c>
       <c r="P20">
-        <v>0.002408409352385473</v>
+        <v>0.004141071520586516</v>
       </c>
       <c r="Q20">
-        <v>0.2007193531225</v>
+        <v>0.01032871636925</v>
       </c>
       <c r="R20">
-        <v>1.204316118735</v>
+        <v>0.041314865477</v>
       </c>
       <c r="S20">
-        <v>0.0009650071287591904</v>
+        <v>4.137885324784425E-05</v>
       </c>
       <c r="T20">
-        <v>0.0006441127965708009</v>
+        <v>1.846977712841678E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0262855</v>
+      </c>
+      <c r="H21">
+        <v>0.052571</v>
+      </c>
+      <c r="I21">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J21">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>32.861248</v>
+      </c>
+      <c r="N21">
+        <v>98.583744</v>
+      </c>
+      <c r="O21">
+        <v>0.5183936124217073</v>
+      </c>
+      <c r="P21">
+        <v>0.5194669649341341</v>
+      </c>
+      <c r="Q21">
+        <v>0.8637743343039999</v>
+      </c>
+      <c r="R21">
+        <v>5.182646005824</v>
+      </c>
+      <c r="S21">
+        <v>0.003460448534033557</v>
+      </c>
+      <c r="T21">
+        <v>0.002316897696697992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.312438</v>
+      </c>
+      <c r="I22">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J22">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4349816666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.304945</v>
+      </c>
+      <c r="O22">
+        <v>0.0068619340787224</v>
+      </c>
+      <c r="P22">
+        <v>0.00687614195861717</v>
+      </c>
+      <c r="Q22">
+        <v>0.3352893784344445</v>
+      </c>
+      <c r="R22">
+        <v>3.01760440591</v>
+      </c>
+      <c r="S22">
+        <v>0.001343234676005264</v>
+      </c>
+      <c r="T22">
+        <v>0.001349017604085232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.312438</v>
+      </c>
+      <c r="I23">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J23">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.362774</v>
+      </c>
+      <c r="N23">
+        <v>1.088322</v>
+      </c>
+      <c r="O23">
+        <v>0.005722841821244052</v>
+      </c>
+      <c r="P23">
+        <v>0.00573469116988544</v>
+      </c>
+      <c r="Q23">
+        <v>0.2796307943373333</v>
+      </c>
+      <c r="R23">
+        <v>2.516677149036</v>
+      </c>
+      <c r="S23">
+        <v>0.001120255527289963</v>
+      </c>
+      <c r="T23">
+        <v>0.001125078479869457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.312438</v>
+      </c>
+      <c r="I24">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J24">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>29.338587</v>
+      </c>
+      <c r="N24">
+        <v>88.015761</v>
+      </c>
+      <c r="O24">
+        <v>0.4628228391775791</v>
+      </c>
+      <c r="P24">
+        <v>0.4637811304167767</v>
+      </c>
+      <c r="Q24">
+        <v>22.614554481702</v>
+      </c>
+      <c r="R24">
+        <v>203.530990335318</v>
+      </c>
+      <c r="S24">
+        <v>0.09059831809784455</v>
+      </c>
+      <c r="T24">
+        <v>0.09098836428045506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.275887</v>
-      </c>
-      <c r="H21">
-        <v>3.827661</v>
-      </c>
-      <c r="I21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="J21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.01450566666666</v>
-      </c>
-      <c r="N21">
-        <v>72.04351699999999</v>
-      </c>
-      <c r="O21">
-        <v>0.5508020072052686</v>
-      </c>
-      <c r="P21">
-        <v>0.5514652855580015</v>
-      </c>
-      <c r="Q21">
-        <v>30.63979559152633</v>
-      </c>
-      <c r="R21">
-        <v>275.758160323737</v>
-      </c>
-      <c r="S21">
-        <v>0.1473082725187046</v>
-      </c>
-      <c r="T21">
-        <v>0.1474856618293134</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.312438</v>
+      </c>
+      <c r="I25">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J25">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.3929435</v>
+      </c>
+      <c r="N25">
+        <v>0.785887</v>
+      </c>
+      <c r="O25">
+        <v>0.006198772500747056</v>
+      </c>
+      <c r="P25">
+        <v>0.004141071520586516</v>
+      </c>
+      <c r="Q25">
+        <v>0.3028858270843334</v>
+      </c>
+      <c r="R25">
+        <v>1.817314962506</v>
+      </c>
+      <c r="S25">
+        <v>0.001213419726296988</v>
+      </c>
+      <c r="T25">
+        <v>0.0008124291811698814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.312438</v>
+      </c>
+      <c r="I26">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J26">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>32.861248</v>
+      </c>
+      <c r="N26">
+        <v>98.583744</v>
+      </c>
+      <c r="O26">
+        <v>0.5183936124217073</v>
+      </c>
+      <c r="P26">
+        <v>0.5194669649341341</v>
+      </c>
+      <c r="Q26">
+        <v>25.32986620087467</v>
+      </c>
+      <c r="R26">
+        <v>227.968795807872</v>
+      </c>
+      <c r="S26">
+        <v>0.1014763866915662</v>
+      </c>
+      <c r="T26">
+        <v>0.1019132654116701</v>
       </c>
     </row>
   </sheetData>
